--- a/outputs/ML_Results/mode_MNLR/France_other.xlsx
+++ b/outputs/ML_Results/mode_MNLR/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ19" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ22990037" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ16653750" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10588009" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ04739417" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02386118" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59957307" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ00290844" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ58177010" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ59384591" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1207,7 +1207,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2263,7 +2263,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3319,7 +3319,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4375,7 +4375,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5431,7 +5431,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -6487,7 +6487,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -7543,7 +7543,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -8599,7 +8599,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -9655,7 +9655,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">

--- a/outputs/ML_Results/mode_MNLR/France_other.xlsx
+++ b/outputs/ML_Results/mode_MNLR/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ22990037" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ16653750" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10588009" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ04739417" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02386118" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59957307" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ00290844" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58177010" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59384591" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11916577" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ00587463" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01008681" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ00987669" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ59611014" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ57973025" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55478695" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ56904950" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ58001593" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
